--- a/config.xlsx
+++ b/config.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hanwyn/Project/qms-monitor/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{154167BF-F715-DE4A-AE45-C8318916E1C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{552A1EC1-3942-2E4D-95D8-63722011DD91}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="640" yWindow="740" windowWidth="28100" windowHeight="17220" xr2:uid="{3B55A8ED-9442-8048-9FD1-0DCD55720AC0}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" count="159" uniqueCount="48">
+<sst xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" count="174" uniqueCount="52">
   <si>
     <t>序号</t>
   </si>
@@ -169,6 +169,22 @@
   </si>
   <si>
     <t>I</t>
+  </si>
+  <si>
+    <t>未完成状态值</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>审核中</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>进行中</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>调查中</t>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1140,15 +1156,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4EF3A8A3-DB77-5943-9AFF-B7A5D4B60337}">
-  <dimension ref="A1:N15"/>
+  <dimension ref="A1:O15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+      <selection activeCell="O1" sqref="O1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:15">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1191,8 +1207,11 @@
       <c r="N1" t="s">
         <v>13</v>
       </c>
+      <c r="O1" t="s">
+        <v>48</v>
+      </c>
     </row>
-    <row r="2" spans="1:14">
+    <row r="2" spans="1:15">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1226,8 +1245,11 @@
       <c r="M2" t="s">
         <v>22</v>
       </c>
+      <c r="O2" t="s">
+        <v>49</v>
+      </c>
     </row>
-    <row r="3" spans="1:14">
+    <row r="3" spans="1:15">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1270,8 +1292,11 @@
       <c r="N3" t="s">
         <v>29</v>
       </c>
+      <c r="O3" t="s">
+        <v>50</v>
+      </c>
     </row>
-    <row r="4" spans="1:14">
+    <row r="4" spans="1:15">
       <c r="A4">
         <v>3</v>
       </c>
@@ -1305,8 +1330,11 @@
       <c r="M4" t="s">
         <v>22</v>
       </c>
+      <c r="O4" t="s">
+        <v>49</v>
+      </c>
     </row>
-    <row r="5" spans="1:14">
+    <row r="5" spans="1:15">
       <c r="A5">
         <v>4</v>
       </c>
@@ -1349,8 +1377,11 @@
       <c r="N5" t="s">
         <v>29</v>
       </c>
+      <c r="O5" t="s">
+        <v>50</v>
+      </c>
     </row>
-    <row r="6" spans="1:14">
+    <row r="6" spans="1:15">
       <c r="A6">
         <v>5</v>
       </c>
@@ -1384,8 +1415,11 @@
       <c r="M6" t="s">
         <v>22</v>
       </c>
+      <c r="O6" t="s">
+        <v>49</v>
+      </c>
     </row>
-    <row r="7" spans="1:14">
+    <row r="7" spans="1:15">
       <c r="A7">
         <v>6</v>
       </c>
@@ -1428,8 +1462,11 @@
       <c r="N7" t="s">
         <v>29</v>
       </c>
+      <c r="O7" t="s">
+        <v>50</v>
+      </c>
     </row>
-    <row r="8" spans="1:14">
+    <row r="8" spans="1:15">
       <c r="A8">
         <v>7</v>
       </c>
@@ -1463,8 +1500,11 @@
       <c r="M8" t="s">
         <v>22</v>
       </c>
+      <c r="O8" t="s">
+        <v>49</v>
+      </c>
     </row>
-    <row r="9" spans="1:14">
+    <row r="9" spans="1:15">
       <c r="A9">
         <v>8</v>
       </c>
@@ -1504,8 +1544,11 @@
       <c r="M9" t="s">
         <v>20</v>
       </c>
+      <c r="O9" t="s">
+        <v>50</v>
+      </c>
     </row>
-    <row r="10" spans="1:14">
+    <row r="10" spans="1:15">
       <c r="A10">
         <v>9</v>
       </c>
@@ -1539,8 +1582,11 @@
       <c r="M10" t="s">
         <v>22</v>
       </c>
+      <c r="O10" t="s">
+        <v>49</v>
+      </c>
     </row>
-    <row r="11" spans="1:14">
+    <row r="11" spans="1:15">
       <c r="A11">
         <v>10</v>
       </c>
@@ -1580,8 +1626,11 @@
       <c r="M11" t="s">
         <v>20</v>
       </c>
+      <c r="O11" t="s">
+        <v>50</v>
+      </c>
     </row>
-    <row r="12" spans="1:14">
+    <row r="12" spans="1:15">
       <c r="A12">
         <v>11</v>
       </c>
@@ -1615,8 +1664,11 @@
       <c r="M12" t="s">
         <v>22</v>
       </c>
+      <c r="O12" t="s">
+        <v>49</v>
+      </c>
     </row>
-    <row r="13" spans="1:14">
+    <row r="13" spans="1:15">
       <c r="A13">
         <v>12</v>
       </c>
@@ -1656,8 +1708,11 @@
       <c r="M13" t="s">
         <v>20</v>
       </c>
+      <c r="O13" t="s">
+        <v>50</v>
+      </c>
     </row>
-    <row r="14" spans="1:14">
+    <row r="14" spans="1:15">
       <c r="A14">
         <v>13</v>
       </c>
@@ -1697,8 +1752,11 @@
       <c r="N14" t="s">
         <v>43</v>
       </c>
+      <c r="O14" t="s">
+        <v>51</v>
+      </c>
     </row>
-    <row r="15" spans="1:14">
+    <row r="15" spans="1:15">
       <c r="A15">
         <v>14</v>
       </c>
@@ -1737,6 +1795,9 @@
       </c>
       <c r="M15" t="s">
         <v>20</v>
+      </c>
+      <c r="O15" t="s">
+        <v>50</v>
       </c>
     </row>
   </sheetData>

--- a/config.xlsx
+++ b/config.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hanwyn/Project/qms-monitor/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{552A1EC1-3942-2E4D-95D8-63722011DD91}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{B9215F7E-BE92-3648-A3AA-BB88575AC73F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="640" yWindow="740" windowWidth="28100" windowHeight="17220" xr2:uid="{3B55A8ED-9442-8048-9FD1-0DCD55720AC0}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" count="174" uniqueCount="52">
+<sst xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" count="175" uniqueCount="53">
   <si>
     <t>序号</t>
   </si>
@@ -184,6 +184,10 @@
   </si>
   <si>
     <t>调查中</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>数据起始行</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
@@ -1156,15 +1160,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4EF3A8A3-DB77-5943-9AFF-B7A5D4B60337}">
-  <dimension ref="A1:O15"/>
+  <dimension ref="A1:P15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O1" sqref="O1"/>
+      <selection activeCell="P6" sqref="P6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:16">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1210,8 +1214,11 @@
       <c r="O1" t="s">
         <v>48</v>
       </c>
+      <c r="P1" t="s">
+        <v>52</v>
+      </c>
     </row>
-    <row r="2" spans="1:15">
+    <row r="2" spans="1:16">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1248,8 +1255,11 @@
       <c r="O2" t="s">
         <v>49</v>
       </c>
+      <c r="P2">
+        <v>3</v>
+      </c>
     </row>
-    <row r="3" spans="1:15">
+    <row r="3" spans="1:16">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1295,8 +1305,11 @@
       <c r="O3" t="s">
         <v>50</v>
       </c>
+      <c r="P3">
+        <v>2</v>
+      </c>
     </row>
-    <row r="4" spans="1:15">
+    <row r="4" spans="1:16">
       <c r="A4">
         <v>3</v>
       </c>
@@ -1333,8 +1346,11 @@
       <c r="O4" t="s">
         <v>49</v>
       </c>
+      <c r="P4">
+        <v>3</v>
+      </c>
     </row>
-    <row r="5" spans="1:15">
+    <row r="5" spans="1:16">
       <c r="A5">
         <v>4</v>
       </c>
@@ -1380,8 +1396,11 @@
       <c r="O5" t="s">
         <v>50</v>
       </c>
+      <c r="P5">
+        <v>2</v>
+      </c>
     </row>
-    <row r="6" spans="1:15">
+    <row r="6" spans="1:16">
       <c r="A6">
         <v>5</v>
       </c>
@@ -1418,8 +1437,11 @@
       <c r="O6" t="s">
         <v>49</v>
       </c>
+      <c r="P6">
+        <v>3</v>
+      </c>
     </row>
-    <row r="7" spans="1:15">
+    <row r="7" spans="1:16">
       <c r="A7">
         <v>6</v>
       </c>
@@ -1465,8 +1487,11 @@
       <c r="O7" t="s">
         <v>50</v>
       </c>
+      <c r="P7">
+        <v>2</v>
+      </c>
     </row>
-    <row r="8" spans="1:15">
+    <row r="8" spans="1:16">
       <c r="A8">
         <v>7</v>
       </c>
@@ -1503,8 +1528,11 @@
       <c r="O8" t="s">
         <v>49</v>
       </c>
+      <c r="P8">
+        <v>3</v>
+      </c>
     </row>
-    <row r="9" spans="1:15">
+    <row r="9" spans="1:16">
       <c r="A9">
         <v>8</v>
       </c>
@@ -1547,8 +1575,11 @@
       <c r="O9" t="s">
         <v>50</v>
       </c>
+      <c r="P9">
+        <v>2</v>
+      </c>
     </row>
-    <row r="10" spans="1:15">
+    <row r="10" spans="1:16">
       <c r="A10">
         <v>9</v>
       </c>
@@ -1585,8 +1616,11 @@
       <c r="O10" t="s">
         <v>49</v>
       </c>
+      <c r="P10">
+        <v>3</v>
+      </c>
     </row>
-    <row r="11" spans="1:15">
+    <row r="11" spans="1:16">
       <c r="A11">
         <v>10</v>
       </c>
@@ -1629,8 +1663,11 @@
       <c r="O11" t="s">
         <v>50</v>
       </c>
+      <c r="P11">
+        <v>2</v>
+      </c>
     </row>
-    <row r="12" spans="1:15">
+    <row r="12" spans="1:16">
       <c r="A12">
         <v>11</v>
       </c>
@@ -1667,8 +1704,11 @@
       <c r="O12" t="s">
         <v>49</v>
       </c>
+      <c r="P12">
+        <v>3</v>
+      </c>
     </row>
-    <row r="13" spans="1:15">
+    <row r="13" spans="1:16">
       <c r="A13">
         <v>12</v>
       </c>
@@ -1711,8 +1751,11 @@
       <c r="O13" t="s">
         <v>50</v>
       </c>
+      <c r="P13">
+        <v>2</v>
+      </c>
     </row>
-    <row r="14" spans="1:15">
+    <row r="14" spans="1:16">
       <c r="A14">
         <v>13</v>
       </c>
@@ -1755,8 +1798,11 @@
       <c r="O14" t="s">
         <v>51</v>
       </c>
+      <c r="P14">
+        <v>3</v>
+      </c>
     </row>
-    <row r="15" spans="1:15">
+    <row r="15" spans="1:16">
       <c r="A15">
         <v>14</v>
       </c>
@@ -1798,6 +1844,9 @@
       </c>
       <c r="O15" t="s">
         <v>50</v>
+      </c>
+      <c r="P15">
+        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/config.xlsx
+++ b/config.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hanwyn/Project/qms-monitor/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{B9215F7E-BE92-3648-A3AA-BB88575AC73F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{F102BBFD-3B39-864F-A592-B24E9760BA7B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="640" yWindow="740" windowWidth="28100" windowHeight="17220" xr2:uid="{3B55A8ED-9442-8048-9FD1-0DCD55720AC0}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" count="175" uniqueCount="53">
+<sst xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" count="190" uniqueCount="58">
   <si>
     <t>序号</t>
   </si>
@@ -188,6 +188,26 @@
   </si>
   <si>
     <t>数据起始行</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>主题</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>变更</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>变更行动</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>OOS/OOT</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>OOS/OOT-CAPA</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
@@ -1160,692 +1180,737 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4EF3A8A3-DB77-5943-9AFF-B7A5D4B60337}">
-  <dimension ref="A1:P15"/>
+  <dimension ref="A1:Q15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P6" sqref="P6"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <sheetData>
-    <row r="1" spans="1:16">
+    <row r="1" spans="1:17">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>13</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>48</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="2" spans="1:16">
+    <row r="2" spans="1:17">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C2" t="s">
         <v>14</v>
       </c>
-      <c r="C2">
+      <c r="D2">
         <v>2026</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>15</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>16</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>17</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>18</v>
       </c>
-      <c r="H2" t="s">
+      <c r="I2" t="s">
         <v>19</v>
       </c>
-      <c r="J2" t="s">
+      <c r="K2" t="s">
         <v>20</v>
       </c>
-      <c r="K2" t="s">
+      <c r="L2" t="s">
         <v>21</v>
       </c>
-      <c r="M2" t="s">
+      <c r="N2" t="s">
         <v>22</v>
       </c>
-      <c r="O2" t="s">
+      <c r="P2" t="s">
         <v>49</v>
       </c>
-      <c r="P2">
+      <c r="Q2">
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:16">
+    <row r="3" spans="1:17">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
+        <v>55</v>
+      </c>
+      <c r="C3" t="s">
         <v>23</v>
       </c>
-      <c r="C3">
+      <c r="D3">
         <v>2026</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E3" t="s">
         <v>15</v>
       </c>
-      <c r="E3" t="s">
+      <c r="F3" t="s">
         <v>24</v>
       </c>
-      <c r="F3" t="s">
+      <c r="G3" t="s">
         <v>21</v>
       </c>
-      <c r="G3" t="s">
+      <c r="H3" t="s">
         <v>25</v>
       </c>
-      <c r="H3" t="s">
+      <c r="I3" t="s">
         <v>26</v>
       </c>
-      <c r="I3" t="s">
+      <c r="J3" t="s">
         <v>27</v>
       </c>
-      <c r="J3" t="s">
+      <c r="K3" t="s">
         <v>28</v>
       </c>
-      <c r="K3" t="s">
+      <c r="L3" t="s">
         <v>17</v>
       </c>
-      <c r="L3" t="s">
+      <c r="M3" t="s">
         <v>18</v>
       </c>
-      <c r="M3" t="s">
+      <c r="N3" t="s">
         <v>20</v>
       </c>
-      <c r="N3" t="s">
+      <c r="O3" t="s">
         <v>29</v>
       </c>
-      <c r="O3" t="s">
+      <c r="P3" t="s">
         <v>50</v>
       </c>
-      <c r="P3">
+      <c r="Q3">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:16">
+    <row r="4" spans="1:17">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" t="s">
+        <v>54</v>
+      </c>
+      <c r="C4" t="s">
         <v>30</v>
       </c>
-      <c r="C4">
+      <c r="D4">
         <v>2026</v>
       </c>
-      <c r="D4" t="s">
+      <c r="E4" t="s">
         <v>31</v>
       </c>
-      <c r="E4" t="s">
+      <c r="F4" t="s">
         <v>16</v>
       </c>
-      <c r="F4" t="s">
+      <c r="G4" t="s">
         <v>17</v>
       </c>
-      <c r="G4" t="s">
+      <c r="H4" t="s">
         <v>18</v>
       </c>
-      <c r="H4" t="s">
+      <c r="I4" t="s">
         <v>19</v>
       </c>
-      <c r="J4" t="s">
+      <c r="K4" t="s">
         <v>20</v>
       </c>
-      <c r="K4" t="s">
+      <c r="L4" t="s">
         <v>21</v>
       </c>
-      <c r="M4" t="s">
+      <c r="N4" t="s">
         <v>22</v>
       </c>
-      <c r="O4" t="s">
+      <c r="P4" t="s">
         <v>49</v>
       </c>
-      <c r="P4">
+      <c r="Q4">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:16">
+    <row r="5" spans="1:17">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" t="s">
+        <v>55</v>
+      </c>
+      <c r="C5" t="s">
         <v>32</v>
       </c>
-      <c r="C5">
+      <c r="D5">
         <v>2026</v>
       </c>
-      <c r="D5" t="s">
+      <c r="E5" t="s">
         <v>31</v>
       </c>
-      <c r="E5" t="s">
+      <c r="F5" t="s">
         <v>24</v>
       </c>
-      <c r="F5" t="s">
+      <c r="G5" t="s">
         <v>21</v>
       </c>
-      <c r="G5" t="s">
+      <c r="H5" t="s">
         <v>25</v>
       </c>
-      <c r="H5" t="s">
+      <c r="I5" t="s">
         <v>26</v>
       </c>
-      <c r="I5" t="s">
+      <c r="J5" t="s">
         <v>27</v>
       </c>
-      <c r="J5" t="s">
+      <c r="K5" t="s">
         <v>28</v>
       </c>
-      <c r="K5" t="s">
+      <c r="L5" t="s">
         <v>17</v>
       </c>
-      <c r="L5" t="s">
+      <c r="M5" t="s">
         <v>18</v>
       </c>
-      <c r="M5" t="s">
+      <c r="N5" t="s">
         <v>20</v>
       </c>
-      <c r="N5" t="s">
+      <c r="O5" t="s">
         <v>29</v>
       </c>
-      <c r="O5" t="s">
+      <c r="P5" t="s">
         <v>50</v>
       </c>
-      <c r="P5">
+      <c r="Q5">
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:16">
+    <row r="6" spans="1:17">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" t="s">
+        <v>54</v>
+      </c>
+      <c r="C6" t="s">
         <v>33</v>
       </c>
-      <c r="C6">
+      <c r="D6">
         <v>2026</v>
       </c>
-      <c r="D6" t="s">
+      <c r="E6" t="s">
         <v>34</v>
       </c>
-      <c r="E6" t="s">
+      <c r="F6" t="s">
         <v>16</v>
       </c>
-      <c r="F6" t="s">
+      <c r="G6" t="s">
         <v>17</v>
       </c>
-      <c r="G6" t="s">
+      <c r="H6" t="s">
         <v>18</v>
       </c>
-      <c r="H6" t="s">
+      <c r="I6" t="s">
         <v>19</v>
       </c>
-      <c r="J6" t="s">
+      <c r="K6" t="s">
         <v>20</v>
       </c>
-      <c r="K6" t="s">
+      <c r="L6" t="s">
         <v>21</v>
       </c>
-      <c r="M6" t="s">
+      <c r="N6" t="s">
         <v>22</v>
       </c>
-      <c r="O6" t="s">
+      <c r="P6" t="s">
         <v>49</v>
       </c>
-      <c r="P6">
+      <c r="Q6">
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:16">
+    <row r="7" spans="1:17">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7" t="s">
+        <v>55</v>
+      </c>
+      <c r="C7" t="s">
         <v>35</v>
       </c>
-      <c r="C7">
+      <c r="D7">
         <v>2026</v>
       </c>
-      <c r="D7" t="s">
+      <c r="E7" t="s">
         <v>34</v>
       </c>
-      <c r="E7" t="s">
+      <c r="F7" t="s">
         <v>24</v>
       </c>
-      <c r="F7" t="s">
+      <c r="G7" t="s">
         <v>21</v>
       </c>
-      <c r="G7" t="s">
+      <c r="H7" t="s">
         <v>25</v>
       </c>
-      <c r="H7" t="s">
+      <c r="I7" t="s">
         <v>26</v>
       </c>
-      <c r="I7" t="s">
+      <c r="J7" t="s">
         <v>27</v>
       </c>
-      <c r="J7" t="s">
+      <c r="K7" t="s">
         <v>28</v>
       </c>
-      <c r="K7" t="s">
+      <c r="L7" t="s">
         <v>17</v>
       </c>
-      <c r="L7" t="s">
+      <c r="M7" t="s">
         <v>18</v>
       </c>
-      <c r="M7" t="s">
+      <c r="N7" t="s">
         <v>20</v>
       </c>
-      <c r="N7" t="s">
+      <c r="O7" t="s">
         <v>29</v>
       </c>
-      <c r="O7" t="s">
+      <c r="P7" t="s">
         <v>50</v>
       </c>
-      <c r="P7">
+      <c r="Q7">
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:16">
+    <row r="8" spans="1:17">
       <c r="A8">
         <v>7</v>
       </c>
       <c r="B8" t="s">
+        <v>54</v>
+      </c>
+      <c r="C8" t="s">
         <v>14</v>
       </c>
-      <c r="C8">
+      <c r="D8">
         <v>2025</v>
       </c>
-      <c r="D8" t="s">
+      <c r="E8" t="s">
         <v>36</v>
       </c>
-      <c r="E8" t="s">
+      <c r="F8" t="s">
         <v>16</v>
       </c>
-      <c r="F8" t="s">
+      <c r="G8" t="s">
         <v>17</v>
       </c>
-      <c r="G8" t="s">
+      <c r="H8" t="s">
         <v>18</v>
       </c>
-      <c r="H8" t="s">
+      <c r="I8" t="s">
         <v>19</v>
       </c>
-      <c r="J8" t="s">
+      <c r="K8" t="s">
         <v>20</v>
       </c>
-      <c r="K8" t="s">
+      <c r="L8" t="s">
         <v>21</v>
       </c>
-      <c r="M8" t="s">
+      <c r="N8" t="s">
         <v>22</v>
       </c>
-      <c r="O8" t="s">
+      <c r="P8" t="s">
         <v>49</v>
       </c>
-      <c r="P8">
+      <c r="Q8">
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:16">
+    <row r="9" spans="1:17">
       <c r="A9">
         <v>8</v>
       </c>
       <c r="B9" t="s">
+        <v>55</v>
+      </c>
+      <c r="C9" t="s">
         <v>23</v>
       </c>
-      <c r="C9">
+      <c r="D9">
         <v>2025</v>
       </c>
-      <c r="D9" t="s">
+      <c r="E9" t="s">
         <v>36</v>
       </c>
-      <c r="E9" t="s">
+      <c r="F9" t="s">
         <v>24</v>
       </c>
-      <c r="F9" t="s">
+      <c r="G9" t="s">
         <v>21</v>
       </c>
-      <c r="G9" t="s">
+      <c r="H9" t="s">
         <v>27</v>
       </c>
-      <c r="H9" t="s">
+      <c r="I9" t="s">
         <v>26</v>
       </c>
-      <c r="I9" t="s">
+      <c r="J9" t="s">
         <v>17</v>
       </c>
-      <c r="J9" t="s">
+      <c r="K9" t="s">
         <v>28</v>
       </c>
-      <c r="K9" t="s">
+      <c r="L9" t="s">
         <v>22</v>
       </c>
-      <c r="L9" t="s">
+      <c r="M9" t="s">
         <v>25</v>
       </c>
-      <c r="M9" t="s">
+      <c r="N9" t="s">
         <v>20</v>
       </c>
-      <c r="O9" t="s">
+      <c r="P9" t="s">
         <v>50</v>
       </c>
-      <c r="P9">
+      <c r="Q9">
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:16">
+    <row r="10" spans="1:17">
       <c r="A10">
         <v>9</v>
       </c>
       <c r="B10" t="s">
+        <v>54</v>
+      </c>
+      <c r="C10" t="s">
         <v>30</v>
       </c>
-      <c r="C10">
+      <c r="D10">
         <v>2025</v>
       </c>
-      <c r="D10" t="s">
+      <c r="E10" t="s">
         <v>37</v>
       </c>
-      <c r="E10" t="s">
+      <c r="F10" t="s">
         <v>16</v>
       </c>
-      <c r="F10" t="s">
+      <c r="G10" t="s">
         <v>17</v>
       </c>
-      <c r="G10" t="s">
+      <c r="H10" t="s">
         <v>18</v>
       </c>
-      <c r="H10" t="s">
+      <c r="I10" t="s">
         <v>19</v>
       </c>
-      <c r="J10" t="s">
+      <c r="K10" t="s">
         <v>20</v>
       </c>
-      <c r="K10" t="s">
+      <c r="L10" t="s">
         <v>21</v>
       </c>
-      <c r="M10" t="s">
+      <c r="N10" t="s">
         <v>22</v>
       </c>
-      <c r="O10" t="s">
+      <c r="P10" t="s">
         <v>49</v>
       </c>
-      <c r="P10">
+      <c r="Q10">
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="1:16">
+    <row r="11" spans="1:17">
       <c r="A11">
         <v>10</v>
       </c>
       <c r="B11" t="s">
+        <v>55</v>
+      </c>
+      <c r="C11" t="s">
         <v>32</v>
       </c>
-      <c r="C11">
+      <c r="D11">
         <v>2025</v>
       </c>
-      <c r="D11" t="s">
+      <c r="E11" t="s">
         <v>37</v>
       </c>
-      <c r="E11" t="s">
+      <c r="F11" t="s">
         <v>24</v>
       </c>
-      <c r="F11" t="s">
+      <c r="G11" t="s">
         <v>21</v>
       </c>
-      <c r="G11" t="s">
+      <c r="H11" t="s">
         <v>27</v>
       </c>
-      <c r="H11" t="s">
+      <c r="I11" t="s">
         <v>26</v>
       </c>
-      <c r="I11" t="s">
+      <c r="J11" t="s">
         <v>17</v>
       </c>
-      <c r="J11" t="s">
+      <c r="K11" t="s">
         <v>28</v>
       </c>
-      <c r="K11" t="s">
+      <c r="L11" t="s">
         <v>22</v>
       </c>
-      <c r="L11" t="s">
+      <c r="M11" t="s">
         <v>25</v>
       </c>
-      <c r="M11" t="s">
+      <c r="N11" t="s">
         <v>20</v>
       </c>
-      <c r="O11" t="s">
+      <c r="P11" t="s">
         <v>50</v>
       </c>
-      <c r="P11">
+      <c r="Q11">
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:16">
+    <row r="12" spans="1:17">
       <c r="A12">
         <v>11</v>
       </c>
       <c r="B12" t="s">
+        <v>54</v>
+      </c>
+      <c r="C12" t="s">
         <v>33</v>
       </c>
-      <c r="C12">
+      <c r="D12">
         <v>2025</v>
       </c>
-      <c r="D12" t="s">
+      <c r="E12" t="s">
         <v>38</v>
       </c>
-      <c r="E12" t="s">
+      <c r="F12" t="s">
         <v>16</v>
       </c>
-      <c r="F12" t="s">
+      <c r="G12" t="s">
         <v>17</v>
       </c>
-      <c r="G12" t="s">
+      <c r="H12" t="s">
         <v>18</v>
       </c>
-      <c r="H12" t="s">
+      <c r="I12" t="s">
         <v>19</v>
       </c>
-      <c r="J12" t="s">
+      <c r="K12" t="s">
         <v>20</v>
       </c>
-      <c r="K12" t="s">
+      <c r="L12" t="s">
         <v>21</v>
       </c>
-      <c r="M12" t="s">
+      <c r="N12" t="s">
         <v>22</v>
       </c>
-      <c r="O12" t="s">
+      <c r="P12" t="s">
         <v>49</v>
       </c>
-      <c r="P12">
+      <c r="Q12">
         <v>3</v>
       </c>
     </row>
-    <row r="13" spans="1:16">
+    <row r="13" spans="1:17">
       <c r="A13">
         <v>12</v>
       </c>
       <c r="B13" t="s">
+        <v>55</v>
+      </c>
+      <c r="C13" t="s">
         <v>35</v>
       </c>
-      <c r="C13">
+      <c r="D13">
         <v>2025</v>
       </c>
-      <c r="D13" t="s">
+      <c r="E13" t="s">
         <v>38</v>
       </c>
-      <c r="E13" t="s">
+      <c r="F13" t="s">
         <v>24</v>
       </c>
-      <c r="F13" t="s">
+      <c r="G13" t="s">
         <v>21</v>
       </c>
-      <c r="G13" t="s">
+      <c r="H13" t="s">
         <v>27</v>
       </c>
-      <c r="H13" t="s">
+      <c r="I13" t="s">
         <v>26</v>
       </c>
-      <c r="I13" t="s">
+      <c r="J13" t="s">
         <v>17</v>
       </c>
-      <c r="J13" t="s">
+      <c r="K13" t="s">
         <v>28</v>
       </c>
-      <c r="K13" t="s">
+      <c r="L13" t="s">
         <v>22</v>
       </c>
-      <c r="L13" t="s">
+      <c r="M13" t="s">
         <v>25</v>
       </c>
-      <c r="M13" t="s">
+      <c r="N13" t="s">
         <v>20</v>
       </c>
-      <c r="O13" t="s">
+      <c r="P13" t="s">
         <v>50</v>
       </c>
-      <c r="P13">
+      <c r="Q13">
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:16">
+    <row r="14" spans="1:17">
       <c r="A14">
         <v>13</v>
       </c>
       <c r="B14" t="s">
+        <v>56</v>
+      </c>
+      <c r="C14" t="s">
         <v>39</v>
       </c>
-      <c r="C14">
+      <c r="D14">
         <v>2026</v>
       </c>
-      <c r="D14" t="s">
+      <c r="E14" t="s">
         <v>40</v>
       </c>
-      <c r="E14" t="s">
+      <c r="F14" t="s">
         <v>39</v>
       </c>
-      <c r="F14" t="s">
+      <c r="G14" t="s">
         <v>22</v>
       </c>
-      <c r="G14" t="s">
+      <c r="H14" t="s">
         <v>17</v>
       </c>
-      <c r="H14" t="s">
+      <c r="I14" t="s">
         <v>25</v>
       </c>
-      <c r="I14" t="s">
+      <c r="J14" t="s">
         <v>19</v>
       </c>
-      <c r="J14" t="s">
+      <c r="K14" t="s">
         <v>26</v>
       </c>
-      <c r="K14" t="s">
+      <c r="L14" t="s">
         <v>41</v>
       </c>
-      <c r="M14" t="s">
+      <c r="N14" t="s">
         <v>42</v>
       </c>
-      <c r="N14" t="s">
+      <c r="O14" t="s">
         <v>43</v>
       </c>
-      <c r="O14" t="s">
+      <c r="P14" t="s">
         <v>51</v>
       </c>
-      <c r="P14">
+      <c r="Q14">
         <v>3</v>
       </c>
     </row>
-    <row r="15" spans="1:16">
+    <row r="15" spans="1:17">
       <c r="A15">
         <v>14</v>
       </c>
       <c r="B15" t="s">
+        <v>57</v>
+      </c>
+      <c r="C15" t="s">
         <v>44</v>
       </c>
-      <c r="C15">
+      <c r="D15">
         <v>2026</v>
       </c>
-      <c r="D15" t="s">
+      <c r="E15" t="s">
         <v>45</v>
       </c>
-      <c r="E15" t="s">
+      <c r="F15" t="s">
         <v>46</v>
       </c>
-      <c r="F15" t="s">
+      <c r="G15" t="s">
         <v>21</v>
       </c>
-      <c r="G15" t="s">
+      <c r="H15" t="s">
         <v>18</v>
       </c>
-      <c r="H15" t="s">
+      <c r="I15" t="s">
         <v>28</v>
       </c>
-      <c r="I15" t="s">
+      <c r="J15" t="s">
         <v>17</v>
       </c>
-      <c r="J15" t="s">
+      <c r="K15" t="s">
         <v>47</v>
       </c>
-      <c r="K15" t="s">
+      <c r="L15" t="s">
         <v>22</v>
       </c>
-      <c r="L15" t="s">
+      <c r="M15" t="s">
         <v>25</v>
       </c>
-      <c r="M15" t="s">
+      <c r="N15" t="s">
         <v>20</v>
       </c>
-      <c r="O15" t="s">
+      <c r="P15" t="s">
         <v>50</v>
       </c>
-      <c r="P15">
+      <c r="Q15">
         <v>2</v>
       </c>
     </row>

--- a/config.xlsx
+++ b/config.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hanwyn/Project/qms-monitor/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{F102BBFD-3B39-864F-A592-B24E9760BA7B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{43230C0A-F275-3F46-B640-0112063C6BEA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="640" yWindow="740" windowWidth="28100" windowHeight="17220" xr2:uid="{3B55A8ED-9442-8048-9FD1-0DCD55720AC0}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" count="190" uniqueCount="58">
+<sst xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" count="191" uniqueCount="59">
   <si>
     <t>序号</t>
   </si>
@@ -208,6 +208,10 @@
   </si>
   <si>
     <t>OOS/OOT-CAPA</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成时限</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
@@ -1180,15 +1184,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4EF3A8A3-DB77-5943-9AFF-B7A5D4B60337}">
-  <dimension ref="A1:Q15"/>
+  <dimension ref="A1:R15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="J4" sqref="J4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:18">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1240,8 +1244,11 @@
       <c r="Q1" t="s">
         <v>52</v>
       </c>
+      <c r="R1" t="s">
+        <v>58</v>
+      </c>
     </row>
-    <row r="2" spans="1:17">
+    <row r="2" spans="1:18">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1269,6 +1276,9 @@
       <c r="I2" t="s">
         <v>19</v>
       </c>
+      <c r="J2">
+        <v>5</v>
+      </c>
       <c r="K2" t="s">
         <v>20</v>
       </c>
@@ -1285,7 +1295,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:17">
+    <row r="3" spans="1:18">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1338,7 +1348,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:17">
+    <row r="4" spans="1:18">
       <c r="A4">
         <v>3</v>
       </c>
@@ -1382,7 +1392,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:17">
+    <row r="5" spans="1:18">
       <c r="A5">
         <v>4</v>
       </c>
@@ -1435,7 +1445,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:17">
+    <row r="6" spans="1:18">
       <c r="A6">
         <v>5</v>
       </c>
@@ -1479,7 +1489,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:17">
+    <row r="7" spans="1:18">
       <c r="A7">
         <v>6</v>
       </c>
@@ -1532,7 +1542,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:17">
+    <row r="8" spans="1:18">
       <c r="A8">
         <v>7</v>
       </c>
@@ -1576,7 +1586,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:17">
+    <row r="9" spans="1:18">
       <c r="A9">
         <v>8</v>
       </c>
@@ -1626,7 +1636,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:17">
+    <row r="10" spans="1:18">
       <c r="A10">
         <v>9</v>
       </c>
@@ -1670,7 +1680,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="1:17">
+    <row r="11" spans="1:18">
       <c r="A11">
         <v>10</v>
       </c>
@@ -1720,7 +1730,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:17">
+    <row r="12" spans="1:18">
       <c r="A12">
         <v>11</v>
       </c>
@@ -1764,7 +1774,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="13" spans="1:17">
+    <row r="13" spans="1:18">
       <c r="A13">
         <v>12</v>
       </c>
@@ -1814,7 +1824,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:17">
+    <row r="14" spans="1:18">
       <c r="A14">
         <v>13</v>
       </c>
@@ -1864,7 +1874,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="15" spans="1:17">
+    <row r="15" spans="1:18">
       <c r="A15">
         <v>14</v>
       </c>
